--- a/data/case1/20/P2_1.xlsx
+++ b/data/case1/20/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.44921509251355474</v>
+        <v>0.37427986513949918</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.079497611657540546</v>
+        <v>-0.0099999992125638926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995139820044</v>
+        <v>-0.0089999992027394171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.01199999988570255</v>
+        <v>-0.011999999808043782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995206414525</v>
+        <v>-0.0059999992188455309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995083082069</v>
+        <v>-0.0059999992033752392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999428476301</v>
+        <v>-0.019999999063594842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999427636972</v>
+        <v>-0.019999999062770613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999507566578</v>
+        <v>-0.0059999992034907024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995090294078</v>
+        <v>-0.0059999992063524132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.011672964909585914</v>
+        <v>-0.0044999992215153384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995091910563</v>
+        <v>-0.0059999992080661535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995110606719</v>
+        <v>-0.0059999992166126503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999478087275</v>
+        <v>0.0643005261057219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995137429707</v>
+        <v>-0.005999999217745966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995163781961</v>
+        <v>-0.0059999992154824433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995222632663</v>
+        <v>-0.0059999992124817325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.048023850618559294</v>
+        <v>-0.008999999182050189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.085982197974909802</v>
+        <v>-0.0089999992190601397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995209968375</v>
+        <v>-0.072755274477626308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.008999999520367119</v>
+        <v>-0.0089999991796827494</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995199843141</v>
+        <v>-0.044576515953222096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995101157637</v>
+        <v>-0.0089999991956366543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.035491455246621229</v>
+        <v>-0.041999998854906906</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999313307335</v>
+        <v>-0.041999998848523568</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995066100098</v>
+        <v>-0.0059999992023485049</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995040889154</v>
+        <v>-0.0059999991998429536</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994938779722</v>
+        <v>-0.0059999991895578475</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999452962484</v>
+        <v>-0.011999999123402105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999404359592</v>
+        <v>-0.019999999041218075</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999427956823</v>
+        <v>0.03847974540193988</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02099999939330921</v>
+        <v>-0.020999999025989702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994780772781</v>
+        <v>-0.031331791600192282</v>
       </c>
     </row>
   </sheetData>
